--- a/assets/stress.xlsx
+++ b/assets/stress.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>BDRX</t>
   </si>
@@ -22,64 +22,61 @@
     <t>Bias</t>
   </si>
   <si>
-    <t>EURO</t>
+    <t>DOLAR</t>
+  </si>
+  <si>
+    <t>IBRX</t>
+  </si>
+  <si>
+    <t>ICO2</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>IDIV</t>
+  </si>
+  <si>
+    <t>IEE</t>
+  </si>
+  <si>
+    <t>INDX</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>SMLL</t>
+  </si>
+  <si>
+    <t>UTIL</t>
+  </si>
+  <si>
+    <t>IBrA</t>
+  </si>
+  <si>
+    <t>IMAT</t>
+  </si>
+  <si>
+    <t>IVBX2</t>
+  </si>
+  <si>
+    <t>MLCX</t>
+  </si>
+  <si>
+    <t>IBRX_50</t>
+  </si>
+  <si>
+    <t>IFNC</t>
+  </si>
+  <si>
+    <t>IMOB</t>
+  </si>
+  <si>
+    <t>ITAG</t>
   </si>
   <si>
     <t>IBOV</t>
-  </si>
-  <si>
-    <t>IMOB</t>
-  </si>
-  <si>
-    <t>ITAG</t>
-  </si>
-  <si>
-    <t>DOLAR</t>
-  </si>
-  <si>
-    <t>ICO2</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <t>IDIV</t>
-  </si>
-  <si>
-    <t>IMAT</t>
-  </si>
-  <si>
-    <t>ISE</t>
-  </si>
-  <si>
-    <t>IVBX2</t>
-  </si>
-  <si>
-    <t>LTN 010125</t>
-  </si>
-  <si>
-    <t>MLCX</t>
-  </si>
-  <si>
-    <t>IBRX_50</t>
-  </si>
-  <si>
-    <t>INDX</t>
-  </si>
-  <si>
-    <t>UTIL</t>
-  </si>
-  <si>
-    <t>SMLL</t>
-  </si>
-  <si>
-    <t>IBrA</t>
-  </si>
-  <si>
-    <t>IFNC</t>
-  </si>
-  <si>
-    <t>IEE</t>
   </si>
   <si>
     <t>05448587000110</t>
@@ -464,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,320 +531,332 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>-0.3239942470844037</v>
+      </c>
+      <c r="C2">
+        <v>0.0006571347286643207</v>
+      </c>
+      <c r="D2">
+        <v>0.1773592803770186</v>
+      </c>
+      <c r="E2">
+        <v>0.6062537918840727</v>
+      </c>
+      <c r="F2">
+        <v>-0.5309862724330032</v>
+      </c>
+      <c r="G2">
+        <v>-0.184219980266331</v>
+      </c>
+      <c r="H2">
+        <v>-0.8501895691072472</v>
+      </c>
+      <c r="I2">
+        <v>-0.6329179112958212</v>
+      </c>
+      <c r="J2">
+        <v>-0.3968582609521694</v>
+      </c>
+      <c r="K2">
+        <v>0.859205716464326</v>
+      </c>
+      <c r="L2">
+        <v>0.4838940299116064</v>
+      </c>
+      <c r="M2">
+        <v>0.2900847531166055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>-0.05915578750483549</v>
-      </c>
-      <c r="C2">
-        <v>0.0006516481797368824</v>
-      </c>
-      <c r="D2">
-        <v>-0.2150663717891296</v>
-      </c>
-      <c r="E2">
-        <v>1.059229760598632</v>
-      </c>
-      <c r="F2">
-        <v>0.1551727401141825</v>
-      </c>
-      <c r="G2">
-        <v>-1.130276420038291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="1" t="s">
+      <c r="C3">
+        <v>0.000368934855514324</v>
+      </c>
+      <c r="D3">
+        <v>-0.1877343572493129</v>
+      </c>
+      <c r="F3">
+        <v>-0.07760076971424329</v>
+      </c>
+      <c r="I3">
+        <v>-0.2016166578145967</v>
+      </c>
+      <c r="M3">
+        <v>0.151852111473623</v>
+      </c>
+      <c r="N3">
+        <v>-1.43407936861872</v>
+      </c>
+      <c r="O3">
+        <v>-0.1067599358097265</v>
+      </c>
+      <c r="P3">
+        <v>0.2151727282166723</v>
+      </c>
+      <c r="Q3">
+        <v>1.406696003429922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
-        <v>0.0002744900776548119</v>
-      </c>
-      <c r="F3">
-        <v>0.1039166118164278</v>
-      </c>
-      <c r="H3">
-        <v>-0.1375218525220352</v>
-      </c>
-      <c r="I3">
-        <v>-0.4193742993418327</v>
-      </c>
-      <c r="J3">
-        <v>-0.1206470259591552</v>
-      </c>
-      <c r="K3">
-        <v>-0.4013414570969677</v>
-      </c>
-      <c r="L3">
-        <v>-0.07634409421697227</v>
-      </c>
-      <c r="M3">
-        <v>0.1668227303048552</v>
-      </c>
-      <c r="N3">
-        <v>0.2183384662056801</v>
-      </c>
-      <c r="O3">
-        <v>0.1509377716439725</v>
-      </c>
-      <c r="P3">
-        <v>0.5127677384327698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>-0.06343597409745633</v>
+      </c>
+      <c r="C4">
+        <v>-0.000363181493364798</v>
+      </c>
+      <c r="D4">
+        <v>0.156125780504781</v>
+      </c>
+      <c r="E4">
+        <v>0.8480161325179538</v>
+      </c>
+      <c r="G4">
+        <v>0.6618594604890214</v>
+      </c>
+      <c r="J4">
+        <v>-0.3210269965383404</v>
+      </c>
+      <c r="K4">
+        <v>-0.2795658699395662</v>
+      </c>
+      <c r="L4">
+        <v>-0.1721153058780283</v>
+      </c>
+      <c r="M4">
+        <v>0.07900850546456335</v>
+      </c>
+      <c r="O4">
+        <v>0.2408174708788529</v>
+      </c>
+      <c r="Q4">
+        <v>-0.4537816260108141</v>
+      </c>
+      <c r="R4">
+        <v>-0.8086849216636469</v>
+      </c>
+      <c r="S4">
+        <v>0.3677524486385113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4">
-        <v>-0.08595864602217168</v>
-      </c>
-      <c r="C4">
-        <v>0.0006666301436620204</v>
-      </c>
-      <c r="D4">
-        <v>0.137523958265815</v>
-      </c>
-      <c r="E4">
-        <v>1.250679835198728</v>
-      </c>
-      <c r="H4">
-        <v>-0.2754072259434971</v>
-      </c>
-      <c r="I4">
-        <v>0.9203336694030018</v>
-      </c>
-      <c r="J4">
-        <v>0.7537045240086828</v>
-      </c>
-      <c r="L4">
-        <v>0.2504705661047198</v>
-      </c>
-      <c r="M4">
-        <v>-0.604416731982153</v>
-      </c>
-      <c r="P4">
-        <v>-0.8653847326638752</v>
-      </c>
-      <c r="Q4">
-        <v>-1.174359185323014</v>
-      </c>
-      <c r="R4">
-        <v>-0.5342142764323581</v>
-      </c>
-      <c r="S4">
-        <v>0.1225812835181698</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0.09241332803130989</v>
+      </c>
+      <c r="C5">
+        <v>0.0002911028146640607</v>
+      </c>
+      <c r="F5">
+        <v>0.548725406993096</v>
+      </c>
+      <c r="G5">
+        <v>0.916059857404077</v>
+      </c>
+      <c r="H5">
+        <v>-0.3471298737064626</v>
+      </c>
+      <c r="J5">
+        <v>-0.3817315913201147</v>
+      </c>
+      <c r="K5">
+        <v>-0.3075135221758034</v>
+      </c>
+      <c r="M5">
+        <v>0.205600323505774</v>
+      </c>
+      <c r="O5">
+        <v>0.2849686075310847</v>
+      </c>
+      <c r="P5">
+        <v>0.0777190096508994</v>
+      </c>
+      <c r="R5">
+        <v>-0.5735677649885798</v>
+      </c>
+      <c r="S5">
+        <v>0.5246339798288726</v>
+      </c>
+      <c r="T5">
+        <v>-0.01400750628123789</v>
+      </c>
+      <c r="U5">
+        <v>-0.9422348257347438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>0.0004293359674483472</v>
-      </c>
-      <c r="E5">
-        <v>1.052268910252781</v>
-      </c>
-      <c r="G5">
-        <v>-0.5937436699362544</v>
-      </c>
-      <c r="H5">
-        <v>-0.1069709741527501</v>
-      </c>
-      <c r="I5">
-        <v>0.7588884406366404</v>
-      </c>
-      <c r="J5">
-        <v>0.3197827358040681</v>
-      </c>
-      <c r="K5">
-        <v>-0.1610096174119094</v>
-      </c>
-      <c r="L5">
-        <v>0.1123406706038393</v>
-      </c>
-      <c r="M5">
-        <v>-0.2596848262525201</v>
-      </c>
-      <c r="Q5">
-        <v>-1.160579007878958</v>
-      </c>
-      <c r="R5">
-        <v>-0.3089332284576891</v>
-      </c>
-      <c r="S5">
-        <v>0.07613679428003685</v>
-      </c>
-      <c r="T5">
-        <v>0.21356354422728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="1" t="s">
+      <c r="C6">
+        <v>0.000254287201498321</v>
+      </c>
+      <c r="D6">
+        <v>-0.1088593218934534</v>
+      </c>
+      <c r="E6">
+        <v>1.106277485182739</v>
+      </c>
+      <c r="F6">
+        <v>0.6028618816284232</v>
+      </c>
+      <c r="H6">
+        <v>-0.1517350027393958</v>
+      </c>
+      <c r="I6">
+        <v>-0.1456072351925307</v>
+      </c>
+      <c r="J6">
+        <v>-0.05235243875627683</v>
+      </c>
+      <c r="K6">
+        <v>0.1204529171312143</v>
+      </c>
+      <c r="L6">
+        <v>0.4640412756188584</v>
+      </c>
+      <c r="P6">
+        <v>-0.06391856886699598</v>
+      </c>
+      <c r="R6">
+        <v>-0.2401844830664888</v>
+      </c>
+      <c r="S6">
+        <v>-0.06256351610358915</v>
+      </c>
+      <c r="U6">
+        <v>-1.089702309430516</v>
+      </c>
+      <c r="V6">
+        <v>-0.4555466721135637</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
-        <v>-0.05286183894547426</v>
-      </c>
-      <c r="C6">
-        <v>0.0003526700843003371</v>
-      </c>
-      <c r="E6">
-        <v>-1.055040971534832</v>
-      </c>
-      <c r="F6">
-        <v>0.08730223191541162</v>
-      </c>
-      <c r="H6">
-        <v>-0.264355558437591</v>
-      </c>
-      <c r="I6">
-        <v>0.6212245707654216</v>
-      </c>
-      <c r="O6">
-        <v>0.1380198442643617</v>
-      </c>
-      <c r="R6">
-        <v>-0.1350769147283614</v>
-      </c>
-      <c r="S6">
-        <v>-0.1177025536874759</v>
-      </c>
-      <c r="U6">
-        <v>1.076133726932001</v>
-      </c>
-      <c r="V6">
-        <v>-0.4430132125391559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="1" t="s">
+      <c r="C7">
+        <v>4.794344852547381e-05</v>
+      </c>
+      <c r="H7">
+        <v>-1.436744817323121</v>
+      </c>
+      <c r="I7">
+        <v>-0.9537735513083152</v>
+      </c>
+      <c r="K7">
+        <v>0.6471881989331244</v>
+      </c>
+      <c r="M7">
+        <v>0.7679793016885211</v>
+      </c>
+      <c r="P7">
+        <v>-0.636429464887893</v>
+      </c>
+      <c r="T7">
+        <v>0.4890714660178254</v>
+      </c>
+      <c r="U7">
+        <v>0.7623670604099089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
-        <v>-0.2033126932937836</v>
-      </c>
-      <c r="C7">
-        <v>0.0005992006573752528</v>
-      </c>
-      <c r="I7">
-        <v>0.5603554186977872</v>
-      </c>
-      <c r="J7">
-        <v>0.6448855143825913</v>
-      </c>
-      <c r="M7">
-        <v>-0.7557992846844265</v>
-      </c>
-      <c r="O7">
-        <v>0.8774034623967776</v>
-      </c>
-      <c r="R7">
-        <v>-0.2882765810530116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="1" t="s">
+      <c r="C8">
+        <v>0.0005036036591450554</v>
+      </c>
+      <c r="G8">
+        <v>0.09684579760940959</v>
+      </c>
+      <c r="H8">
+        <v>0.1951384287153833</v>
+      </c>
+      <c r="M8">
+        <v>0.3593880276735673</v>
+      </c>
+      <c r="O8">
+        <v>0.1146694002131677</v>
+      </c>
+      <c r="U8">
+        <v>0.3414521213769282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
-        <v>0.001002888607802003</v>
-      </c>
-      <c r="K8">
-        <v>-1.238586872118859</v>
-      </c>
-      <c r="M8">
-        <v>0.6161967401779079</v>
-      </c>
-      <c r="R8">
-        <v>0.5551957525584125</v>
-      </c>
-      <c r="S8">
-        <v>0.870762351816749</v>
-      </c>
-      <c r="T8">
-        <v>0.6960561750298924</v>
-      </c>
-      <c r="W8">
-        <v>-0.763349365495287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>0.05305468738896115</v>
+      </c>
+      <c r="C9">
+        <v>-3.331901484179411e-05</v>
+      </c>
+      <c r="D9">
+        <v>-0.3825132100796448</v>
+      </c>
+      <c r="G9">
+        <v>-0.1011196882289003</v>
+      </c>
+      <c r="H9">
+        <v>-0.1410488410399167</v>
+      </c>
+      <c r="K9">
+        <v>-0.300049242196488</v>
+      </c>
+      <c r="M9">
+        <v>-0.131200862731551</v>
+      </c>
+      <c r="N9">
+        <v>1.105689679346485</v>
+      </c>
+      <c r="Q9">
+        <v>0.7221098949606779</v>
+      </c>
+      <c r="R9">
+        <v>-0.8666905209239069</v>
+      </c>
+      <c r="S9">
+        <v>-0.4584202844109251</v>
+      </c>
+      <c r="T9">
+        <v>0.3227485057837086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
-        <v>0.1871038135582103</v>
-      </c>
-      <c r="C9">
-        <v>-0.0005862086072835708</v>
-      </c>
-      <c r="F9">
-        <v>0.1263934394598336</v>
-      </c>
-      <c r="G9">
-        <v>0.5852125111942654</v>
-      </c>
-      <c r="H9">
-        <v>-0.1039580959447538</v>
-      </c>
-      <c r="I9">
-        <v>0.5804771399010579</v>
-      </c>
-      <c r="K9">
-        <v>-0.3850057430623245</v>
-      </c>
-      <c r="M9">
-        <v>0.5823755887759092</v>
-      </c>
-      <c r="N9">
-        <v>-0.3711275516724193</v>
-      </c>
-      <c r="O9">
-        <v>-0.2880909359762857</v>
-      </c>
-      <c r="Q9">
-        <v>-0.8444395008205655</v>
-      </c>
-      <c r="S9">
-        <v>0.3866373188506664</v>
-      </c>
-      <c r="T9">
-        <v>0.2589827352921051</v>
-      </c>
-      <c r="V9">
-        <v>-0.3126634009595697</v>
-      </c>
-      <c r="W9">
-        <v>-0.6713881642672768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
+      <c r="B10">
+        <v>-0.5042185832699662</v>
       </c>
       <c r="C10">
-        <v>0.0004890969351737115</v>
-      </c>
-      <c r="D10">
-        <v>-1.231588901148033</v>
-      </c>
-      <c r="E10">
-        <v>0.3791731262731418</v>
+        <v>-0.0008320031861876024</v>
       </c>
       <c r="J10">
-        <v>1.168428776489821</v>
+        <v>0.9652607919910904</v>
+      </c>
+      <c r="L10">
+        <v>-0.1470460694727714</v>
+      </c>
+      <c r="P10">
+        <v>0.8673530383747277</v>
       </c>
       <c r="R10">
-        <v>0.5890352692406828</v>
-      </c>
-      <c r="W10">
-        <v>-0.8794198608203925</v>
+        <v>0.6307080177583382</v>
       </c>
     </row>
   </sheetData>
